--- a/natmiOut/OldD7/LR-pairs_lrc2p/Vcam1-Itgb2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Vcam1-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.56551464986131</v>
+        <v>6.664768333333334</v>
       </c>
       <c r="H2">
-        <v>5.56551464986131</v>
+        <v>19.994305</v>
       </c>
       <c r="I2">
-        <v>0.05702532795953111</v>
+        <v>0.06516174319532789</v>
       </c>
       <c r="J2">
-        <v>0.05702532795953111</v>
+        <v>0.0651617431953279</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.462745182311199</v>
+        <v>0.1087903333333333</v>
       </c>
       <c r="N2">
-        <v>0.462745182311199</v>
+        <v>0.326371</v>
       </c>
       <c r="O2">
-        <v>0.007989275687980345</v>
+        <v>0.001630158713897873</v>
       </c>
       <c r="P2">
-        <v>0.007989275687980345</v>
+        <v>0.001630158713897873</v>
       </c>
       <c r="Q2">
-        <v>2.575415091305721</v>
+        <v>0.7250623685727777</v>
       </c>
       <c r="R2">
-        <v>2.575415091305721</v>
+        <v>6.525561317155</v>
       </c>
       <c r="S2">
-        <v>0.0004555910662661877</v>
+        <v>0.0001062239834826392</v>
       </c>
       <c r="T2">
-        <v>0.0004555910662661877</v>
+        <v>0.0001062239834826392</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.56551464986131</v>
+        <v>6.664768333333334</v>
       </c>
       <c r="H3">
-        <v>5.56551464986131</v>
+        <v>19.994305</v>
       </c>
       <c r="I3">
-        <v>0.05702532795953111</v>
+        <v>0.06516174319532789</v>
       </c>
       <c r="J3">
-        <v>0.05702532795953111</v>
+        <v>0.0651617431953279</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>57.4580476884852</v>
+        <v>0.467525</v>
       </c>
       <c r="N3">
-        <v>57.4580476884852</v>
+        <v>1.402575</v>
       </c>
       <c r="O3">
-        <v>0.9920107243120196</v>
+        <v>0.007005585233201815</v>
       </c>
       <c r="P3">
-        <v>0.9920107243120196</v>
+        <v>0.007005585233201814</v>
       </c>
       <c r="Q3">
-        <v>319.7836061626942</v>
+        <v>3.115945815041667</v>
       </c>
       <c r="R3">
-        <v>319.7836061626942</v>
+        <v>28.043512335375</v>
       </c>
       <c r="S3">
-        <v>0.05656973689326492</v>
+        <v>0.0004564961458988779</v>
       </c>
       <c r="T3">
-        <v>0.05656973689326492</v>
+        <v>0.0004564961458988779</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>47.1094810435203</v>
+        <v>6.664768333333334</v>
       </c>
       <c r="H4">
-        <v>47.1094810435203</v>
+        <v>19.994305</v>
       </c>
       <c r="I4">
-        <v>0.4826927562893044</v>
+        <v>0.06516174319532789</v>
       </c>
       <c r="J4">
-        <v>0.4826927562893044</v>
+        <v>0.0651617431953279</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.462745182311199</v>
+        <v>65.34528366666666</v>
       </c>
       <c r="N4">
-        <v>0.462745182311199</v>
+        <v>196.035851</v>
       </c>
       <c r="O4">
-        <v>0.007989275687980345</v>
+        <v>0.9791603749844046</v>
       </c>
       <c r="P4">
-        <v>0.007989275687980345</v>
+        <v>0.9791603749844042</v>
       </c>
       <c r="Q4">
-        <v>21.79968539406977</v>
+        <v>435.5111773142839</v>
       </c>
       <c r="R4">
-        <v>21.79968539406977</v>
+        <v>3919.600595828555</v>
       </c>
       <c r="S4">
-        <v>0.003856365502586361</v>
+        <v>0.06380379690177472</v>
       </c>
       <c r="T4">
-        <v>0.003856365502586361</v>
+        <v>0.06380379690177472</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,60 +714,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>47.1094810435203</v>
+        <v>6.664768333333334</v>
       </c>
       <c r="H5">
-        <v>47.1094810435203</v>
+        <v>19.994305</v>
       </c>
       <c r="I5">
-        <v>0.4826927562893044</v>
+        <v>0.06516174319532789</v>
       </c>
       <c r="J5">
-        <v>0.4826927562893044</v>
+        <v>0.0651617431953279</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>57.4580476884852</v>
+        <v>0.8144386666666666</v>
       </c>
       <c r="N5">
-        <v>57.4580476884852</v>
+        <v>2.443316</v>
       </c>
       <c r="O5">
-        <v>0.9920107243120196</v>
+        <v>0.01220388106849596</v>
       </c>
       <c r="P5">
-        <v>0.9920107243120196</v>
+        <v>0.01220388106849596</v>
       </c>
       <c r="Q5">
-        <v>2706.818808378379</v>
+        <v>5.428045035042222</v>
       </c>
       <c r="R5">
-        <v>2706.818808378379</v>
+        <v>48.85240531538</v>
       </c>
       <c r="S5">
-        <v>0.478836390786718</v>
+        <v>0.0007952261641716577</v>
       </c>
       <c r="T5">
-        <v>0.478836390786718</v>
+        <v>0.0007952261641716576</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.204973893948</v>
+        <v>47.25592399999999</v>
       </c>
       <c r="H6">
-        <v>19.204973893948</v>
+        <v>141.767772</v>
       </c>
       <c r="I6">
-        <v>0.1967778370296643</v>
+        <v>0.4620233187619072</v>
       </c>
       <c r="J6">
-        <v>0.1967778370296643</v>
+        <v>0.4620233187619072</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.462745182311199</v>
+        <v>0.1087903333333333</v>
       </c>
       <c r="N6">
-        <v>0.462745182311199</v>
+        <v>0.326371</v>
       </c>
       <c r="O6">
-        <v>0.007989275687980345</v>
+        <v>0.001630158713897873</v>
       </c>
       <c r="P6">
-        <v>0.007989275687980345</v>
+        <v>0.001630158713897873</v>
       </c>
       <c r="Q6">
-        <v>8.887009145836785</v>
+        <v>5.140987723934665</v>
       </c>
       <c r="R6">
-        <v>8.887009145836785</v>
+        <v>46.26888951541199</v>
       </c>
       <c r="S6">
-        <v>0.001572112389314455</v>
+        <v>0.0007531713391037377</v>
       </c>
       <c r="T6">
-        <v>0.001572112389314455</v>
+        <v>0.0007531713391037376</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.204973893948</v>
+        <v>47.25592399999999</v>
       </c>
       <c r="H7">
-        <v>19.204973893948</v>
+        <v>141.767772</v>
       </c>
       <c r="I7">
-        <v>0.1967778370296643</v>
+        <v>0.4620233187619072</v>
       </c>
       <c r="J7">
-        <v>0.1967778370296643</v>
+        <v>0.4620233187619072</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>57.4580476884852</v>
+        <v>0.467525</v>
       </c>
       <c r="N7">
-        <v>57.4580476884852</v>
+        <v>1.402575</v>
       </c>
       <c r="O7">
-        <v>0.9920107243120196</v>
+        <v>0.007005585233201815</v>
       </c>
       <c r="P7">
-        <v>0.9920107243120196</v>
+        <v>0.007005585233201814</v>
       </c>
       <c r="Q7">
-        <v>1103.480305854578</v>
+        <v>22.0933258681</v>
       </c>
       <c r="R7">
-        <v>1103.480305854578</v>
+        <v>198.8399328129</v>
       </c>
       <c r="S7">
-        <v>0.1952057246403498</v>
+        <v>0.003236743739313312</v>
       </c>
       <c r="T7">
-        <v>0.1952057246403498</v>
+        <v>0.003236743739313312</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>25.7172709548197</v>
+        <v>47.25592399999999</v>
       </c>
       <c r="H8">
-        <v>25.7172709548197</v>
+        <v>141.767772</v>
       </c>
       <c r="I8">
-        <v>0.2635040787215002</v>
+        <v>0.4620233187619072</v>
       </c>
       <c r="J8">
-        <v>0.2635040787215002</v>
+        <v>0.4620233187619072</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.462745182311199</v>
+        <v>65.34528366666666</v>
       </c>
       <c r="N8">
-        <v>0.462745182311199</v>
+        <v>196.035851</v>
       </c>
       <c r="O8">
-        <v>0.007989275687980345</v>
+        <v>0.9791603749844046</v>
       </c>
       <c r="P8">
-        <v>0.007989275687980345</v>
+        <v>0.9791603749844042</v>
       </c>
       <c r="Q8">
-        <v>11.90054323653454</v>
+        <v>3087.951758710441</v>
       </c>
       <c r="R8">
-        <v>11.90054323653454</v>
+        <v>27791.56582839397</v>
       </c>
       <c r="S8">
-        <v>0.00210520672981334</v>
+        <v>0.4523949260504481</v>
       </c>
       <c r="T8">
-        <v>0.00210520672981334</v>
+        <v>0.452394926050448</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,551 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>47.25592399999999</v>
+      </c>
+      <c r="H9">
+        <v>141.767772</v>
+      </c>
+      <c r="I9">
+        <v>0.4620233187619072</v>
+      </c>
+      <c r="J9">
+        <v>0.4620233187619072</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.8144386666666666</v>
+      </c>
+      <c r="N9">
+        <v>2.443316</v>
+      </c>
+      <c r="O9">
+        <v>0.01220388106849596</v>
+      </c>
+      <c r="P9">
+        <v>0.01220388106849596</v>
+      </c>
+      <c r="Q9">
+        <v>38.48705173466133</v>
+      </c>
+      <c r="R9">
+        <v>346.3834656119519</v>
+      </c>
+      <c r="S9">
+        <v>0.005638477633042115</v>
+      </c>
+      <c r="T9">
+        <v>0.005638477633042114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>25.7172709548197</v>
-      </c>
-      <c r="H9">
-        <v>25.7172709548197</v>
-      </c>
-      <c r="I9">
-        <v>0.2635040787215002</v>
-      </c>
-      <c r="J9">
-        <v>0.2635040787215002</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>57.4580476884852</v>
-      </c>
-      <c r="N9">
-        <v>57.4580476884852</v>
-      </c>
-      <c r="O9">
-        <v>0.9920107243120196</v>
-      </c>
-      <c r="P9">
-        <v>0.9920107243120196</v>
-      </c>
-      <c r="Q9">
-        <v>1477.664180939726</v>
-      </c>
-      <c r="R9">
-        <v>1477.664180939726</v>
-      </c>
-      <c r="S9">
-        <v>0.2613988719916868</v>
-      </c>
-      <c r="T9">
-        <v>0.2613988719916868</v>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>20.98736333333333</v>
+      </c>
+      <c r="H10">
+        <v>62.96209</v>
+      </c>
+      <c r="I10">
+        <v>0.2051944060881897</v>
+      </c>
+      <c r="J10">
+        <v>0.2051944060881898</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.1087903333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.326371</v>
+      </c>
+      <c r="O10">
+        <v>0.001630158713897873</v>
+      </c>
+      <c r="P10">
+        <v>0.001630158713897873</v>
+      </c>
+      <c r="Q10">
+        <v>2.283222252821111</v>
+      </c>
+      <c r="R10">
+        <v>20.54900027539</v>
+      </c>
+      <c r="S10">
+        <v>0.0003344994491277613</v>
+      </c>
+      <c r="T10">
+        <v>0.0003344994491277612</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>20.98736333333333</v>
+      </c>
+      <c r="H11">
+        <v>62.96209</v>
+      </c>
+      <c r="I11">
+        <v>0.2051944060881897</v>
+      </c>
+      <c r="J11">
+        <v>0.2051944060881898</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.467525</v>
+      </c>
+      <c r="N11">
+        <v>1.402575</v>
+      </c>
+      <c r="O11">
+        <v>0.007005585233201815</v>
+      </c>
+      <c r="P11">
+        <v>0.007005585233201814</v>
+      </c>
+      <c r="Q11">
+        <v>9.812117042416668</v>
+      </c>
+      <c r="R11">
+        <v>88.30905338175002</v>
+      </c>
+      <c r="S11">
+        <v>0.001437506901227039</v>
+      </c>
+      <c r="T11">
+        <v>0.001437506901227039</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>20.98736333333333</v>
+      </c>
+      <c r="H12">
+        <v>62.96209</v>
+      </c>
+      <c r="I12">
+        <v>0.2051944060881897</v>
+      </c>
+      <c r="J12">
+        <v>0.2051944060881898</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>65.34528366666666</v>
+      </c>
+      <c r="N12">
+        <v>196.035851</v>
+      </c>
+      <c r="O12">
+        <v>0.9791603749844046</v>
+      </c>
+      <c r="P12">
+        <v>0.9791603749844042</v>
+      </c>
+      <c r="Q12">
+        <v>1371.425210432066</v>
+      </c>
+      <c r="R12">
+        <v>12342.82689388859</v>
+      </c>
+      <c r="S12">
+        <v>0.200918231610014</v>
+      </c>
+      <c r="T12">
+        <v>0.200918231610014</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>20.98736333333333</v>
+      </c>
+      <c r="H13">
+        <v>62.96209</v>
+      </c>
+      <c r="I13">
+        <v>0.2051944060881897</v>
+      </c>
+      <c r="J13">
+        <v>0.2051944060881898</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.8144386666666666</v>
+      </c>
+      <c r="N13">
+        <v>2.443316</v>
+      </c>
+      <c r="O13">
+        <v>0.01220388106849596</v>
+      </c>
+      <c r="P13">
+        <v>0.01220388106849596</v>
+      </c>
+      <c r="Q13">
+        <v>17.09292021004889</v>
+      </c>
+      <c r="R13">
+        <v>153.83628189044</v>
+      </c>
+      <c r="S13">
+        <v>0.002504168127820932</v>
+      </c>
+      <c r="T13">
+        <v>0.002504168127820931</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>27.37233166666667</v>
+      </c>
+      <c r="H14">
+        <v>82.116995</v>
+      </c>
+      <c r="I14">
+        <v>0.2676205319545753</v>
+      </c>
+      <c r="J14">
+        <v>0.2676205319545753</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.1087903333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.326371</v>
+      </c>
+      <c r="O14">
+        <v>0.001630158713897873</v>
+      </c>
+      <c r="P14">
+        <v>0.001630158713897873</v>
+      </c>
+      <c r="Q14">
+        <v>2.977845086127222</v>
+      </c>
+      <c r="R14">
+        <v>26.800605775145</v>
+      </c>
+      <c r="S14">
+        <v>0.0004362639421837352</v>
+      </c>
+      <c r="T14">
+        <v>0.0004362639421837351</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>27.37233166666667</v>
+      </c>
+      <c r="H15">
+        <v>82.116995</v>
+      </c>
+      <c r="I15">
+        <v>0.2676205319545753</v>
+      </c>
+      <c r="J15">
+        <v>0.2676205319545753</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.467525</v>
+      </c>
+      <c r="N15">
+        <v>1.402575</v>
+      </c>
+      <c r="O15">
+        <v>0.007005585233201815</v>
+      </c>
+      <c r="P15">
+        <v>0.007005585233201814</v>
+      </c>
+      <c r="Q15">
+        <v>12.79724936245833</v>
+      </c>
+      <c r="R15">
+        <v>115.175244262125</v>
+      </c>
+      <c r="S15">
+        <v>0.001874838446762587</v>
+      </c>
+      <c r="T15">
+        <v>0.001874838446762587</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>27.37233166666667</v>
+      </c>
+      <c r="H16">
+        <v>82.116995</v>
+      </c>
+      <c r="I16">
+        <v>0.2676205319545753</v>
+      </c>
+      <c r="J16">
+        <v>0.2676205319545753</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>65.34528366666666</v>
+      </c>
+      <c r="N16">
+        <v>196.035851</v>
+      </c>
+      <c r="O16">
+        <v>0.9791603749844046</v>
+      </c>
+      <c r="P16">
+        <v>0.9791603749844042</v>
+      </c>
+      <c r="Q16">
+        <v>1788.652777376416</v>
+      </c>
+      <c r="R16">
+        <v>16097.87499638774</v>
+      </c>
+      <c r="S16">
+        <v>0.2620434204221678</v>
+      </c>
+      <c r="T16">
+        <v>0.2620434204221677</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>27.37233166666667</v>
+      </c>
+      <c r="H17">
+        <v>82.116995</v>
+      </c>
+      <c r="I17">
+        <v>0.2676205319545753</v>
+      </c>
+      <c r="J17">
+        <v>0.2676205319545753</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.8144386666666666</v>
+      </c>
+      <c r="N17">
+        <v>2.443316</v>
+      </c>
+      <c r="O17">
+        <v>0.01220388106849596</v>
+      </c>
+      <c r="P17">
+        <v>0.01220388106849596</v>
+      </c>
+      <c r="Q17">
+        <v>22.29308530615778</v>
+      </c>
+      <c r="R17">
+        <v>200.63776775542</v>
+      </c>
+      <c r="S17">
+        <v>0.003266009143461261</v>
+      </c>
+      <c r="T17">
+        <v>0.00326600914346126</v>
       </c>
     </row>
   </sheetData>
